--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Supply Chain\Gestão\Reportes\Relatório Mensal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F6587-866A-4BE8-9FA1-053B6573BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662961B8-EBF3-47B1-B9C8-124CF1487BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{19CE77E3-4AC1-43FA-889F-0CF0F915B873}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{19CE77E3-4AC1-43FA-889F-0CF0F915B873}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -167,7 +165,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,9 +175,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,9 +188,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,11 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D8CCE4-1984-402D-851F-C5F1CB7E5FA3}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,10 +570,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -601,7 +596,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>44927</v>
       </c>
       <c r="B2" s="3">
@@ -640,14 +635,14 @@
       <c r="M2" s="5">
         <v>0.751</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>44958</v>
       </c>
       <c r="B3" s="3">
@@ -686,14 +681,14 @@
       <c r="M3" s="5">
         <v>0.75519999999999998</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>44986</v>
       </c>
       <c r="B4" s="3">
@@ -732,14 +727,14 @@
       <c r="M4" s="5">
         <v>0.7369</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>45017</v>
       </c>
       <c r="B5" s="3">
@@ -778,14 +773,14 @@
       <c r="M5" s="5">
         <v>0.72150000000000003</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>45047</v>
       </c>
       <c r="B6" s="3">
@@ -824,14 +819,14 @@
       <c r="M6" s="5">
         <v>0.71109999999999995</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>45078</v>
       </c>
       <c r="B7" s="3">
@@ -870,14 +865,14 @@
       <c r="M7" s="5">
         <v>0.65980000000000005</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>45108</v>
       </c>
       <c r="B8" s="3">
@@ -916,14 +911,14 @@
       <c r="M8" s="5">
         <v>0.6613</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>45139</v>
       </c>
       <c r="B9" s="3">
@@ -962,14 +957,14 @@
       <c r="M9" s="5">
         <v>0.6825</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>45170</v>
       </c>
       <c r="B10" s="3">
@@ -1008,14 +1003,14 @@
       <c r="M10" s="5">
         <v>0.68920000000000003</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>45200</v>
       </c>
       <c r="B11" s="3">
@@ -1054,14 +1049,14 @@
       <c r="M11" s="5">
         <v>0.68810000000000004</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>45231</v>
       </c>
       <c r="B12" s="3">
@@ -1100,14 +1095,14 @@
       <c r="M12" s="5">
         <v>0.6895</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>45261</v>
       </c>
       <c r="B13" s="3">
@@ -1146,14 +1141,14 @@
       <c r="M13" s="5">
         <v>0.68320000000000003</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>45292</v>
       </c>
       <c r="B14" s="3">
@@ -1192,17 +1187,17 @@
       <c r="M14" s="5">
         <v>0.69089999999999996</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9">
         <f>5000*0.83</f>
         <v>4150</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>45323</v>
       </c>
       <c r="B15" s="3">
@@ -1241,17 +1236,17 @@
       <c r="M15" s="5">
         <v>0.6915</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10">
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
         <f>3600*0.83</f>
         <v>2988</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>45352</v>
       </c>
       <c r="B16" s="3">
@@ -1290,17 +1285,17 @@
       <c r="M16" s="5">
         <v>0.69440000000000002</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10">
+      <c r="N16" s="9"/>
+      <c r="O16" s="9">
         <f>2700*0.83</f>
         <v>2241</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>45383</v>
       </c>
       <c r="B17" s="3">
@@ -1339,17 +1334,17 @@
       <c r="M17" s="5">
         <v>0.71709999999999996</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9">
         <f>3600*0.83</f>
         <v>2988</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>45413</v>
       </c>
       <c r="B18" s="3">
@@ -1388,17 +1383,17 @@
       <c r="M18" s="5">
         <v>0.72419999999999995</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9">
         <f>7300*0.83</f>
         <v>6059</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>45444</v>
       </c>
       <c r="B19" s="3">
@@ -1437,17 +1432,17 @@
       <c r="M19" s="5">
         <v>0.76949999999999996</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9">
         <f>8900*0.83</f>
         <v>7387</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>45474</v>
       </c>
       <c r="B20" s="3">
@@ -1486,17 +1481,17 @@
       <c r="M20" s="5">
         <v>0.78249999999999997</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9">
         <f>9000*0.83</f>
         <v>7470</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>45505</v>
       </c>
       <c r="B21" s="3">
@@ -1535,17 +1530,17 @@
       <c r="M21" s="5">
         <v>0.79110000000000003</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10">
+      <c r="N21" s="9"/>
+      <c r="O21" s="9">
         <f>7800*0.83</f>
         <v>6474</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>45536</v>
       </c>
       <c r="B22" s="3">
@@ -1584,17 +1579,17 @@
       <c r="M22" s="5">
         <v>0.77639999999999998</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10">
+      <c r="N22" s="9"/>
+      <c r="O22" s="9">
         <f>7000*0.83</f>
         <v>5810</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>45566</v>
       </c>
       <c r="B23" s="3">
@@ -1650,7 +1645,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>45597</v>
       </c>
       <c r="B24" s="3">
@@ -1706,7 +1701,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>45627</v>
       </c>
       <c r="B25" s="3">
@@ -1762,7 +1757,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>45658</v>
       </c>
       <c r="B26" s="3">
@@ -1818,7 +1813,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>45689</v>
       </c>
       <c r="B27" s="3">
@@ -1874,7 +1869,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>45717</v>
       </c>
       <c r="B28" s="3">
@@ -1930,7 +1925,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>45748</v>
       </c>
       <c r="B29" s="3">
@@ -1986,7 +1981,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>45778</v>
       </c>
       <c r="B30" s="3">
@@ -2042,7 +2037,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>45809</v>
       </c>
       <c r="B31" s="3">
@@ -2098,7 +2093,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>45839</v>
       </c>
       <c r="B32" s="3">
@@ -2141,7 +2136,7 @@
         <v>706.2</v>
       </c>
       <c r="O32" s="6">
-        <v>5143.75</v>
+        <v>4781.25</v>
       </c>
       <c r="P32" s="6">
         <v>3190</v>
@@ -2154,11 +2149,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>45870</v>
       </c>
       <c r="B33" s="3">
-        <v>910.65</v>
+        <v>904.65</v>
       </c>
       <c r="C33" s="3">
         <v>1059.72</v>
@@ -2197,22 +2192,73 @@
         <v>706.2</v>
       </c>
       <c r="O33" s="6">
-        <v>4043.14</v>
+        <v>3261.04</v>
       </c>
       <c r="P33" s="6">
-        <v>3190</v>
+        <v>3050</v>
       </c>
       <c r="Q33" s="6">
-        <v>2600</v>
+        <v>2965</v>
       </c>
       <c r="R33" s="6">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B34" s="3">
+        <v>857.39</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3105</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1277.68</v>
+      </c>
+      <c r="F34" s="3">
+        <v>661.8</v>
+      </c>
+      <c r="G34" s="3">
+        <v>624.73</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2837</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3972</v>
+      </c>
+      <c r="J34" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="K34" s="3">
+        <v>5.4572000000000003</v>
+      </c>
+      <c r="L34" s="3">
+        <v>6.3613</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0.7641</v>
+      </c>
+      <c r="N34" s="6">
+        <v>591.25</v>
+      </c>
+      <c r="O34" s="6">
+        <v>2660</v>
+      </c>
+      <c r="P34" s="6">
+        <v>2746</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>2450</v>
+      </c>
+      <c r="R34" s="6">
+        <v>2450</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
